--- a/www/Persona_share.xlsx
+++ b/www/Persona_share.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slakshminarayanan\Desktop\Reckitt_shiny_app\code\V1\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF14870-8FB5-448F-86EE-7B97B8557FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76594530-8C2A-4653-80AC-A203D3CB3345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,6 +114,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.00000000E+00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,11 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,16 +449,19 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.08984375" customWidth="1"/>
     <col min="10" max="17" width="15.90625" customWidth="1"/>
-    <col min="18" max="18" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -742,8 +749,8 @@
       <c r="Q5">
         <v>0</v>
       </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
+      <c r="R5" s="4">
+        <f>1/((B5*J5*N5*F5)+(C5*K5*O5*G5)+(D5*L5*P5*H5)+(E5*M5*Q5*I5))</f>
         <v>3.2912058978409687E-5</v>
       </c>
     </row>

--- a/www/Persona_share.xlsx
+++ b/www/Persona_share.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slakshminarayanan\Desktop\Reckitt_shiny_app\code\V1\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76594530-8C2A-4653-80AC-A203D3CB3345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A4F4A-C9C6-47A3-AAB3-4BACB9FDE5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Category</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>Persona4_duration</t>
+  </si>
+  <si>
+    <t>Persona1_epi_duration</t>
+  </si>
+  <si>
+    <t>Persona2_epi_duration</t>
+  </si>
+  <si>
+    <t>Persona3_epi_duration</t>
+  </si>
+  <si>
+    <t>Persona4_epi_duration</t>
   </si>
 </sst>
 </file>
@@ -115,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.00000000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -165,7 +177,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,12 +471,12 @@
     <col min="7" max="7" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.08984375" customWidth="1"/>
-    <col min="10" max="17" width="15.90625" customWidth="1"/>
-    <col min="18" max="18" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="15.90625" customWidth="1"/>
+    <col min="22" max="22" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,10 +529,22 @@
         <v>22</v>
       </c>
       <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -561,23 +585,35 @@
         <v>1200</v>
       </c>
       <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
         <v>7</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>7</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>10</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="U2" s="3">
         <v>7</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <f>1/((B2*J2*N2*F2)+(C2*K2*O2*G2)+(D2*L2*P2*H2)+(E2*M2*Q2*I2))</f>
-        <v>4.0160642570281125E-5</v>
+        <v>9.5785440613026823E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -620,23 +656,35 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="O3" s="3">
+      <c r="S3" s="3">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R6" si="1">1/((B3*J3*N3*F3)+(C3*K3*O3*G3)+(D3*L3*P3*H3)+(E3*M3*Q3*I3))</f>
-        <v>4.9603174603174603E-5</v>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V6" si="1">1/((B3*J3*N3*F3)+(C3*K3*O3*G3)+(D3*L3*P3*H3)+(E3*M3*Q3*I3))</f>
+        <v>1.6534391534391536E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -682,20 +730,32 @@
         <v>3</v>
       </c>
       <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
         <v>7</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <f t="shared" si="1"/>
-        <v>2.7870680044593089E-5</v>
+        <v>3.1210986267166041E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -738,23 +798,35 @@
         <v>0</v>
       </c>
       <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
         <v>2</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>90</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
         <f>1/((B5*J5*N5*F5)+(C5*K5*O5*G5)+(D5*L5*P5*H5)+(E5*M5*Q5*I5))</f>
-        <v>3.2912058978409687E-5</v>
+        <v>1.0936132983377078E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -795,24 +867,36 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
         <v>14</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>30</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="1"/>
-        <v>2.6438240270727579E-5</v>
+        <v>1.3888888888888889E-4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/www/Persona_share.xlsx
+++ b/www/Persona_share.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slakshminarayanan\Desktop\Reckitt_shiny_app\code\V1\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A4F4A-C9C6-47A3-AAB3-4BACB9FDE5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B86A7-8999-42BC-AC9F-66C1D5927CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Category</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Persona4_epi_duration</t>
+  </si>
+  <si>
+    <t>Person1_HCP_visit</t>
+  </si>
+  <si>
+    <t>Person2_HCP_visit</t>
+  </si>
+  <si>
+    <t>Person3_HCP_visit</t>
+  </si>
+  <si>
+    <t>Person4_HCP_visit</t>
   </si>
 </sst>
 </file>
@@ -458,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,10 +485,10 @@
     <col min="9" max="9" width="11.08984375" customWidth="1"/>
     <col min="10" max="21" width="15.90625" customWidth="1"/>
     <col min="22" max="22" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,28 +555,40 @@
       <c r="V1" t="s">
         <v>13</v>
       </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.77500000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="C2" s="2">
-        <v>0.125</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -610,10 +634,22 @@
       </c>
       <c r="V2">
         <f>1/((B2*J2*N2*F2)+(C2*K2*O2*G2)+(D2*L2*P2*H2)+(E2*M2*Q2*I2))</f>
-        <v>9.5785440613026823E-5</v>
+        <v>7.3099415204678364E-5</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -633,7 +669,7 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -656,22 +692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>3</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -680,11 +716,23 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V6" si="1">1/((B3*J3*N3*F3)+(C3*K3*O3*G3)+(D3*L3*P3*H3)+(E3*M3*Q3*I3))</f>
-        <v>1.6534391534391536E-5</v>
+        <f>1/((B3*J3*N3*F3)+(C3*K3*O3*G3)+(D3*L3*P3*H3)+(E3*M3*Q3*I3))</f>
+        <v>2.7340332458442695E-5</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -719,11 +767,11 @@
         <v>1200</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4" si="2">400*1*1*H4</f>
+        <f t="shared" ref="L4" si="1">400*1*1*H4</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4" si="3">400*1*1*I4</f>
+        <f t="shared" ref="M4" si="2">400*1*1*I4</f>
         <v>0</v>
       </c>
       <c r="N4">
@@ -751,19 +799,31 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="V4:V6" si="3">1/((B4*J4*N4*F4)+(C4*K4*O4*G4)+(D4*L4*P4*H4)+(E4*M4*Q4*I4))</f>
         <v>3.1210986267166041E-5</v>
       </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="C5" s="1">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -772,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -823,18 +883,30 @@
       </c>
       <c r="V5" s="4">
         <f>1/((B5*J5*N5*F5)+(C5*K5*O5*G5)+(D5*L5*P5*H5)+(E5*M5*Q5*I5))</f>
-        <v>1.0936132983377078E-4</v>
+        <v>2.445226917057903E-5</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -843,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -858,7 +930,7 @@
         <v>1200</v>
       </c>
       <c r="K6">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -879,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="R6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -891,8 +963,20 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="1"/>
-        <v>1.3888888888888889E-4</v>
+        <f t="shared" si="3"/>
+        <v>9.2592592592592588E-5</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
